--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hc-C5ar1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hc-C5ar1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Hc</t>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -546,10 +543,10 @@
         <v>0.35516</v>
       </c>
       <c r="I2">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J2">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +555,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1137376666666667</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N2">
-        <v>0.341213</v>
+        <v>0.632891</v>
       </c>
       <c r="O2">
-        <v>0.0008124832852874852</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P2">
-        <v>0.000813605578437685</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q2">
-        <v>0.01346502323111111</v>
+        <v>0.02497528528444444</v>
       </c>
       <c r="R2">
-        <v>0.12118520908</v>
+        <v>0.22477756756</v>
       </c>
       <c r="S2">
-        <v>0.0005272919305963307</v>
+        <v>0.002432025979314546</v>
       </c>
       <c r="T2">
-        <v>0.0005573238541228908</v>
+        <v>0.002432025979314546</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>0.35516</v>
       </c>
       <c r="I3">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J3">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +623,10 @@
         <v>2.09946</v>
       </c>
       <c r="O3">
-        <v>0.004999153485153449</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P3">
-        <v>0.005006058877319394</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q3">
         <v>0.08284935706666666</v>
@@ -638,10 +635,10 @@
         <v>0.7456442136</v>
       </c>
       <c r="S3">
-        <v>0.003244390795807231</v>
+        <v>0.00806764713439078</v>
       </c>
       <c r="T3">
-        <v>0.00342917514507608</v>
+        <v>0.008067647134390784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -670,10 +667,10 @@
         <v>0.35516</v>
       </c>
       <c r="I4">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J4">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.57662766666667</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N4">
-        <v>97.729883</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O4">
-        <v>0.2327106423571246</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P4">
-        <v>0.2330320884282319</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q4">
-        <v>3.856638360697777</v>
+        <v>3.831647369448889</v>
       </c>
       <c r="R4">
-        <v>34.70974524628</v>
+        <v>34.48482632504</v>
       </c>
       <c r="S4">
-        <v>0.151026422451734</v>
+        <v>0.3731154955765793</v>
       </c>
       <c r="T4">
-        <v>0.1596281356705025</v>
+        <v>0.3731154955765795</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -732,54 +729,54 @@
         <v>0.35516</v>
       </c>
       <c r="I5">
-        <v>0.6489880347627783</v>
+        <v>0.7705291475929099</v>
       </c>
       <c r="J5">
-        <v>0.6850049568159111</v>
+        <v>0.77052914759291</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5793</v>
+        <v>33.562467</v>
       </c>
       <c r="N5">
-        <v>1.1586</v>
+        <v>100.687401</v>
       </c>
       <c r="O5">
-        <v>0.004138220705251912</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P5">
-        <v>0.002762624586923423</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q5">
-        <v>0.068581396</v>
+        <v>3.973348593239999</v>
       </c>
       <c r="R5">
-        <v>0.411488376</v>
+        <v>35.76013733916</v>
       </c>
       <c r="S5">
-        <v>0.002685655722916077</v>
+        <v>0.3869139789026252</v>
       </c>
       <c r="T5">
-        <v>0.001892411535864054</v>
+        <v>0.3869139789026253</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,46 +785,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1183866666666667</v>
+        <v>0.03525666666666667</v>
       </c>
       <c r="H6">
-        <v>0.35516</v>
+        <v>0.10577</v>
       </c>
       <c r="I6">
-        <v>0.6489880347627783</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J6">
-        <v>0.6850049568159111</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>106.018215</v>
+        <v>0.2109636666666667</v>
       </c>
       <c r="N6">
-        <v>318.054645</v>
+        <v>0.632891</v>
       </c>
       <c r="O6">
-        <v>0.7573395001671824</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="P6">
-        <v>0.7583856225290876</v>
+        <v>0.003156306269415063</v>
       </c>
       <c r="Q6">
-        <v>12.5511430798</v>
+        <v>0.007437875674444444</v>
       </c>
       <c r="R6">
-        <v>112.9602877182</v>
+        <v>0.06694088107</v>
       </c>
       <c r="S6">
-        <v>0.4915042738617246</v>
+        <v>0.0007242802901005166</v>
       </c>
       <c r="T6">
-        <v>0.5194979106103456</v>
+        <v>0.0007242802901005168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,40 +853,40 @@
         <v>0.10577</v>
       </c>
       <c r="I7">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J7">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.1137376666666667</v>
+        <v>0.69982</v>
       </c>
       <c r="N7">
-        <v>0.341213</v>
+        <v>2.09946</v>
       </c>
       <c r="O7">
-        <v>0.0008124832852874852</v>
+        <v>0.01047026859346419</v>
       </c>
       <c r="P7">
-        <v>0.000813605578437685</v>
+        <v>0.0104702685934642</v>
       </c>
       <c r="Q7">
-        <v>0.004010011001111111</v>
+        <v>0.02467332046666667</v>
       </c>
       <c r="R7">
-        <v>0.03609009901</v>
+        <v>0.2220598842</v>
       </c>
       <c r="S7">
-        <v>0.0001570325135127095</v>
+        <v>0.002402621459073412</v>
       </c>
       <c r="T7">
-        <v>0.0001659763037802066</v>
+        <v>0.002402621459073413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +894,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,10 +915,10 @@
         <v>0.10577</v>
       </c>
       <c r="I8">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J8">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.69982</v>
+        <v>32.36553133333334</v>
       </c>
       <c r="N8">
-        <v>2.09946</v>
+        <v>97.09659400000001</v>
       </c>
       <c r="O8">
-        <v>0.004999153485153449</v>
+        <v>0.4842328116232479</v>
       </c>
       <c r="P8">
-        <v>0.005006058877319394</v>
+        <v>0.484232811623248</v>
       </c>
       <c r="Q8">
-        <v>0.02467332046666667</v>
+        <v>1.141100749708889</v>
       </c>
       <c r="R8">
-        <v>0.2220598842</v>
+        <v>10.26990674738</v>
       </c>
       <c r="S8">
-        <v>0.0009662101995509935</v>
+        <v>0.1111173160466685</v>
       </c>
       <c r="T8">
-        <v>0.001021240722757904</v>
+        <v>0.1111173160466686</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +977,10 @@
         <v>0.10577</v>
       </c>
       <c r="I9">
-        <v>0.1932747619012813</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="J9">
-        <v>0.2040009412164065</v>
+        <v>0.22947085240709</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,462 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>32.57662766666667</v>
+        <v>33.562467</v>
       </c>
       <c r="N9">
-        <v>97.729883</v>
+        <v>100.687401</v>
       </c>
       <c r="O9">
-        <v>0.2327106423571246</v>
+        <v>0.5021406135138727</v>
       </c>
       <c r="P9">
-        <v>0.2330320884282319</v>
+        <v>0.5021406135138728</v>
       </c>
       <c r="Q9">
-        <v>1.148543302767778</v>
+        <v>1.18330071153</v>
       </c>
       <c r="R9">
-        <v>10.33688972491</v>
+        <v>10.64970640377</v>
       </c>
       <c r="S9">
-        <v>0.04497709399346748</v>
+        <v>0.1152266346112475</v>
       </c>
       <c r="T9">
-        <v>0.04753876537298417</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.03525666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.10577</v>
-      </c>
-      <c r="I10">
-        <v>0.1932747619012813</v>
-      </c>
-      <c r="J10">
-        <v>0.2040009412164065</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.5</v>
-      </c>
-      <c r="M10">
-        <v>0.5793</v>
-      </c>
-      <c r="N10">
-        <v>1.1586</v>
-      </c>
-      <c r="O10">
-        <v>0.004138220705251912</v>
-      </c>
-      <c r="P10">
-        <v>0.002762624586923423</v>
-      </c>
-      <c r="Q10">
-        <v>0.020424187</v>
-      </c>
-      <c r="R10">
-        <v>0.122545122</v>
-      </c>
-      <c r="S10">
-        <v>0.0007998136215025158</v>
-      </c>
-      <c r="T10">
-        <v>0.0005635780159599645</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.03525666666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.10577</v>
-      </c>
-      <c r="I11">
-        <v>0.1932747619012813</v>
-      </c>
-      <c r="J11">
-        <v>0.2040009412164065</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>106.018215</v>
-      </c>
-      <c r="N11">
-        <v>318.054645</v>
-      </c>
-      <c r="O11">
-        <v>0.7573395001671824</v>
-      </c>
-      <c r="P11">
-        <v>0.7583856225290876</v>
-      </c>
-      <c r="Q11">
-        <v>3.73784886685</v>
-      </c>
-      <c r="R11">
-        <v>33.64063980165</v>
-      </c>
-      <c r="S11">
-        <v>0.1463746115732476</v>
-      </c>
-      <c r="T11">
-        <v>0.1547113808009243</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.028774</v>
-      </c>
-      <c r="H12">
-        <v>0.057548</v>
-      </c>
-      <c r="I12">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J12">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M12">
-        <v>0.1137376666666667</v>
-      </c>
-      <c r="N12">
-        <v>0.341213</v>
-      </c>
-      <c r="O12">
-        <v>0.0008124832852874852</v>
-      </c>
-      <c r="P12">
-        <v>0.000813605578437685</v>
-      </c>
-      <c r="Q12">
-        <v>0.003272687620666667</v>
-      </c>
-      <c r="R12">
-        <v>0.019636125724</v>
-      </c>
-      <c r="S12">
-        <v>0.0001281588411784449</v>
-      </c>
-      <c r="T12">
-        <v>9.030542053458758E-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.028774</v>
-      </c>
-      <c r="H13">
-        <v>0.057548</v>
-      </c>
-      <c r="I13">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J13">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.69982</v>
-      </c>
-      <c r="N13">
-        <v>2.09946</v>
-      </c>
-      <c r="O13">
-        <v>0.004999153485153449</v>
-      </c>
-      <c r="P13">
-        <v>0.005006058877319394</v>
-      </c>
-      <c r="Q13">
-        <v>0.02013662068</v>
-      </c>
-      <c r="R13">
-        <v>0.12081972408</v>
-      </c>
-      <c r="S13">
-        <v>0.0007885524897952243</v>
-      </c>
-      <c r="T13">
-        <v>0.0005556430094854102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.028774</v>
-      </c>
-      <c r="H14">
-        <v>0.057548</v>
-      </c>
-      <c r="I14">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J14">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>32.57662766666667</v>
-      </c>
-      <c r="N14">
-        <v>97.729883</v>
-      </c>
-      <c r="O14">
-        <v>0.2327106423571246</v>
-      </c>
-      <c r="P14">
-        <v>0.2330320884282319</v>
-      </c>
-      <c r="Q14">
-        <v>0.9373598844806668</v>
-      </c>
-      <c r="R14">
-        <v>5.624159306884001</v>
-      </c>
-      <c r="S14">
-        <v>0.03670712591192304</v>
-      </c>
-      <c r="T14">
-        <v>0.02586518738474513</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.028774</v>
-      </c>
-      <c r="H15">
-        <v>0.057548</v>
-      </c>
-      <c r="I15">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J15">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.5</v>
-      </c>
-      <c r="M15">
-        <v>0.5793</v>
-      </c>
-      <c r="N15">
-        <v>1.1586</v>
-      </c>
-      <c r="O15">
-        <v>0.004138220705251912</v>
-      </c>
-      <c r="P15">
-        <v>0.002762624586923423</v>
-      </c>
-      <c r="Q15">
-        <v>0.0166687782</v>
-      </c>
-      <c r="R15">
-        <v>0.06667511280000001</v>
-      </c>
-      <c r="S15">
-        <v>0.0006527513608333192</v>
-      </c>
-      <c r="T15">
-        <v>0.0003066350350994047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.028774</v>
-      </c>
-      <c r="H16">
-        <v>0.057548</v>
-      </c>
-      <c r="I16">
-        <v>0.1577372033359403</v>
-      </c>
-      <c r="J16">
-        <v>0.1109941019676823</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>106.018215</v>
-      </c>
-      <c r="N16">
-        <v>318.054645</v>
-      </c>
-      <c r="O16">
-        <v>0.7573395001671824</v>
-      </c>
-      <c r="P16">
-        <v>0.7583856225290876</v>
-      </c>
-      <c r="Q16">
-        <v>3.05056811841</v>
-      </c>
-      <c r="R16">
-        <v>18.30340871046</v>
-      </c>
-      <c r="S16">
-        <v>0.1194606147322103</v>
-      </c>
-      <c r="T16">
-        <v>0.08417633111781779</v>
+        <v>0.1152266346112476</v>
       </c>
     </row>
   </sheetData>
